--- a/Excel/RTS/DeployFormation.xlsx
+++ b/Excel/RTS/DeployFormation.xlsx
@@ -9,12 +9,15 @@
   <sheets>
     <sheet name="Common" sheetId="4" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" calcMode="manual"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
+  <si>
+    <t>##var</t>
+  </si>
   <si>
     <t>ID</t>
   </si>
@@ -25,7 +28,16 @@
     <t>name</t>
   </si>
   <si>
-    <t>备注</t>
+    <t>#备注</t>
+  </si>
+  <si>
+    <t>#最大兵力</t>
+  </si>
+  <si>
+    <t>#是否中心对齐（true/false）</t>
+  </si>
+  <si>
+    <t>##type</t>
   </si>
   <si>
     <t>int</t>
@@ -34,19 +46,16 @@
     <t>string</t>
   </si>
   <si>
+    <t>##group</t>
+  </si>
+  <si>
+    <t>##</t>
+  </si>
+  <si>
     <t>阵型 ID（主键）</t>
   </si>
   <si>
     <t>阵型名称</t>
-  </si>
-  <si>
-    <t>描述</t>
-  </si>
-  <si>
-    <t>最大兵力</t>
-  </si>
-  <si>
-    <t>是否中心对齐（true/false）</t>
   </si>
   <si>
     <t>1</t>
@@ -692,11 +701,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1053,24 +1065,26 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="E5" sqref="E5:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="33" style="1" customWidth="1"/>
-    <col min="2" max="3" width="15" style="1" customWidth="1"/>
-    <col min="4" max="4" width="57.75" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="28.25" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="15" style="1" customWidth="1"/>
-    <col min="9" max="9" width="10.875" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="9.625" customWidth="1"/>
+    <col min="2" max="2" width="33" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15" style="1" customWidth="1"/>
+    <col min="4" max="4" width="25.375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="57.75" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="28.25" style="1" customWidth="1"/>
+    <col min="8" max="8" width="10.875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="15" style="1" customWidth="1"/>
+    <col min="10" max="10" width="10.875" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -1082,92 +1096,108 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1" t="s">
-        <v>4</v>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="1" t="s">
+    <row r="3" spans="1:1">
+      <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>3</v>
-      </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="D4" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="C4" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="1"/>
+    <row r="5" spans="2:5">
+      <c r="B5" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="D5" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="1"/>
+    <row r="6" spans="2:5">
+      <c r="B6" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="D6" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="1"/>
+    <row r="7" spans="2:5">
+      <c r="B7" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="D7" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="1"/>
+    <row r="8" spans="2:5">
+      <c r="B8" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="D8" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="2"/>
-      <c r="B16" s="1"/>
-      <c r="D16"/>
+    <row r="9" spans="2:5">
+      <c r="B9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="2"/>
-      <c r="B17" s="1"/>
-      <c r="D17"/>
+    <row r="16" spans="2:5">
+      <c r="B16" s="3"/>
+      <c r="E16"/>
+    </row>
+    <row r="17" spans="2:5">
+      <c r="B17" s="3"/>
+      <c r="E17"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Excel/RTS/DeployFormation.xlsx
+++ b/Excel/RTS/DeployFormation.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>##var</t>
   </si>
@@ -22,9 +22,6 @@
     <t>ID</t>
   </si>
   <si>
-    <t>val</t>
-  </si>
-  <si>
     <t>name</t>
   </si>
   <si>
@@ -55,37 +52,71 @@
     <t>阵型 ID（主键）</t>
   </si>
   <si>
-    <t>阵型名称</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
     <t>盾墙推进阵（防御型）</t>
   </si>
   <si>
+    <t xml:space="preserve">盾墙推进阵（防御型）  
+骑  骑  
+步  步  
+弓  弓   
+  法  </t>
+  </si>
+  <si>
     <t>2</t>
   </si>
   <si>
     <t>楔形突破阵（进攻型）</t>
   </si>
   <si>
+    <t xml:space="preserve">楔形突破阵（进攻型）
+    骑 
+  步  步  
+骑      骑  
+  弓  弓  
+    法  </t>
+  </si>
+  <si>
     <t>3</t>
   </si>
   <si>
     <t>雁形狙击阵（远程压制型）</t>
   </si>
   <si>
+    <t>雁形狙击阵（远程压制型） 
+弓      弓  
+    法  
+  步  步  
+骑      骑</t>
+  </si>
+  <si>
     <t>4</t>
   </si>
   <si>
     <t>环形防御阵（应急型）</t>
   </si>
   <si>
+    <t xml:space="preserve">环形防御阵（应急型）
+   步  
+步    步  
+   步  
+弓 法 弓  
+骑    骑  </t>
+  </si>
+  <si>
     <t>5</t>
   </si>
   <si>
     <t>菱形突袭阵（游击型）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">菱形突袭阵（游击型）
+    骑  
+  法  法  
+弓      弓  
+    步  </t>
   </si>
 </sst>
 </file>
@@ -701,7 +732,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -710,6 +741,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1062,28 +1096,27 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5:E9"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="9.625" customWidth="1"/>
     <col min="2" max="2" width="33" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15" style="1" customWidth="1"/>
-    <col min="4" max="4" width="25.375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="57.75" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="28.25" style="1" customWidth="1"/>
-    <col min="8" max="8" width="10.875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="15" style="1" customWidth="1"/>
-    <col min="10" max="10" width="10.875" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="1"/>
+    <col min="3" max="3" width="25.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="57.75" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="28.25" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="15" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.875" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1102,102 +1135,93 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
+      <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
         <v>10</v>
       </c>
+      <c r="B4" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="1" t="s">
+    <row r="5" ht="67.5" spans="2:4">
+      <c r="B5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="D5" s="3" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="5" spans="2:5">
-      <c r="B5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="1" t="s">
+    <row r="6" ht="81" spans="2:4">
+      <c r="B6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>15</v>
+      <c r="C6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="6" spans="2:5">
-      <c r="B6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5">
+    <row r="7" ht="67.5" spans="2:4">
       <c r="B7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>19</v>
+      <c r="D7" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="8" spans="2:5">
+    <row r="8" ht="81" spans="2:4">
       <c r="B8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>21</v>
+      <c r="C8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="9" spans="2:5">
+    <row r="9" ht="67.5" spans="2:4">
       <c r="B9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>26</v>
       </c>
     </row>
-    <row r="16" spans="2:5">
-      <c r="B16" s="3"/>
-      <c r="E16"/>
+    <row r="16" spans="2:4">
+      <c r="B16" s="4"/>
+      <c r="D16"/>
     </row>
-    <row r="17" spans="2:5">
-      <c r="B17" s="3"/>
-      <c r="E17"/>
+    <row r="17" spans="2:4">
+      <c r="B17" s="4"/>
+      <c r="D17"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Excel/RTS/DeployFormation.xlsx
+++ b/Excel/RTS/DeployFormation.xlsx
@@ -99,11 +99,11 @@
   </si>
   <si>
     <t xml:space="preserve">环形防御阵（应急型）
-   步  
-步    步  
-   步  
-弓 法 弓  
-骑    骑  </t>
+   步步  
+步步   步步  
+   步步  
+弓法法法弓  
+骑骑  骑骑  </t>
   </si>
   <si>
     <t>5</t>
@@ -1099,7 +1099,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
